--- a/00. DOC/01. AD_업무분석 및 설계/요구사항정의서/KORAIL_고객요구사항정의서 v1.0.xlsx
+++ b/00. DOC/01. AD_업무분석 및 설계/요구사항정의서/KORAIL_고객요구사항정의서 v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="-210" windowWidth="8175" windowHeight="6405" activeTab="1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="134">
   <si>
     <t>업무영역</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -379,31 +379,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강민주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회의록(05.04)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이석준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>코멘트 기능을 통해 stamp 기능을 확장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>맛집의 정보를 받아와서 맛집의 번호표를 통한 예약 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이자연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -562,6 +546,81 @@
   <si>
     <t>로드뷰를 보여주는 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로stamp 비콘으로 구현하는 기능을 NFC로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록(05.07)</t>
+  </si>
+  <si>
+    <t>회의록(05.07)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승차권을 구매한 사람들의 정보를 통해 분석 후 추천 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현 위치에서 음식점 수 등의 여러 항목의 정보를 조회하는 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 지역에서 찍은 사진과 일기를 올려서 쓸 수 있는 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 찾기, 경로 찾기 등을 통해서 여러 운송수단의 시간을 조회하는 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문하려는 위치를 찍어서 날짜와 시간을 작성하는 여행 계획 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ028</t>
+  </si>
+  <si>
+    <t>RQ029</t>
+  </si>
+  <si>
+    <t>RQ030</t>
+  </si>
+  <si>
+    <t>RQ031</t>
   </si>
 </sst>
 </file>
@@ -1920,11 +1979,11 @@
   <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1964,7 +2023,7 @@
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2057,7 +2116,7 @@
         <v>39</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I5" s="40">
         <v>42859</v>
@@ -2065,11 +2124,9 @@
       <c r="J5" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>73</v>
       </c>
       <c r="M5" s="34"/>
     </row>
@@ -2084,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>39</v>
@@ -2101,11 +2158,9 @@
       <c r="J6" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="K6" s="34"/>
       <c r="L6" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M6" s="35"/>
     </row>
@@ -2123,7 +2178,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>39</v>
@@ -2132,7 +2187,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I7" s="40">
         <v>42859</v>
@@ -2140,11 +2195,9 @@
       <c r="J7" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="34" t="s">
-        <v>74</v>
-      </c>
+      <c r="K7" s="34"/>
       <c r="L7" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M7" s="35"/>
     </row>
@@ -2159,10 +2212,10 @@
         <v>43</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>39</v>
@@ -2171,7 +2224,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I8" s="40">
         <v>42859</v>
@@ -2181,7 +2234,7 @@
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M8" s="35"/>
     </row>
@@ -2196,7 +2249,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>40</v>
@@ -2216,11 +2269,9 @@
       <c r="J9" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="34" t="s">
-        <v>77</v>
-      </c>
+      <c r="K9" s="34"/>
       <c r="L9" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M9" s="35"/>
     </row>
@@ -2232,10 +2283,10 @@
         <v>45</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>1</v>
@@ -2244,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I10" s="40">
         <v>42859</v>
@@ -2252,11 +2303,9 @@
       <c r="J10" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>73</v>
       </c>
       <c r="M10" s="35"/>
     </row>
@@ -2268,10 +2317,10 @@
         <v>46</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>39</v>
@@ -2290,7 +2339,7 @@
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M11" s="35"/>
     </row>
@@ -2302,7 +2351,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>40</v>
@@ -2324,7 +2373,7 @@
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M12" s="35"/>
     </row>
@@ -2336,7 +2385,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>60</v>
@@ -2348,7 +2397,7 @@
         <v>39</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I13" s="40">
         <v>42859</v>
@@ -2358,7 +2407,7 @@
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M13" s="35"/>
     </row>
@@ -2370,10 +2419,10 @@
         <v>49</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>39</v>
@@ -2392,7 +2441,7 @@
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M14" s="35"/>
     </row>
@@ -2404,10 +2453,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>39</v>
@@ -2426,7 +2475,7 @@
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M15" s="35"/>
     </row>
@@ -2441,7 +2490,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>40</v>
@@ -2463,7 +2512,7 @@
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M16" s="35"/>
     </row>
@@ -2475,7 +2524,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>40</v>
@@ -2497,7 +2546,7 @@
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" s="35"/>
     </row>
@@ -2509,10 +2558,10 @@
         <v>53</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>39</v>
@@ -2521,7 +2570,7 @@
         <v>39</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I18" s="40">
         <v>42859</v>
@@ -2531,7 +2580,7 @@
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M18" s="35"/>
     </row>
@@ -2546,7 +2595,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>40</v>
@@ -2568,7 +2617,7 @@
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M19" s="35"/>
     </row>
@@ -2583,10 +2632,10 @@
         <v>55</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>39</v>
@@ -2595,7 +2644,7 @@
         <v>39</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I20" s="40">
         <v>42859</v>
@@ -2605,7 +2654,7 @@
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -2620,7 +2669,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>40</v>
@@ -2642,7 +2691,7 @@
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M21" s="35"/>
     </row>
@@ -2657,10 +2706,10 @@
         <v>57</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>39</v>
@@ -2669,7 +2718,7 @@
         <v>39</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I22" s="40">
         <v>42859</v>
@@ -2679,7 +2728,7 @@
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M22" s="35"/>
     </row>
@@ -2694,10 +2743,10 @@
         <v>61</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>39</v>
@@ -2706,7 +2755,7 @@
         <v>39</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I23" s="40">
         <v>42859</v>
@@ -2716,7 +2765,7 @@
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M23" s="35"/>
     </row>
@@ -2728,22 +2777,22 @@
         <v>63</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I24" s="40">
         <v>42859</v>
@@ -2753,7 +2802,7 @@
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M24" s="35"/>
     </row>
@@ -2765,22 +2814,22 @@
         <v>63</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I25" s="40">
         <v>42859</v>
@@ -2790,7 +2839,7 @@
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M25" s="35"/>
     </row>
@@ -2802,22 +2851,22 @@
         <v>68</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I26" s="40">
         <v>42859</v>
@@ -2836,25 +2885,25 @@
         <v>1</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I27" s="40">
         <v>42859</v>
@@ -2870,25 +2919,25 @@
     </row>
     <row r="28" spans="1:13" ht="24.95" customHeight="1">
       <c r="B28" s="33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I28" s="40">
         <v>42859</v>
@@ -2904,25 +2953,25 @@
     </row>
     <row r="29" spans="1:13" ht="24.95" customHeight="1">
       <c r="B29" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I29" s="40">
         <v>42859</v>
@@ -2937,87 +2986,207 @@
       <c r="M29" s="35"/>
     </row>
     <row r="30" spans="1:13" ht="24.95" customHeight="1">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="52"/>
+      <c r="B30" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="40">
+        <v>42862</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>119</v>
+      </c>
       <c r="K30" s="34"/>
-      <c r="L30" s="36"/>
+      <c r="L30" s="36" t="s">
+        <v>121</v>
+      </c>
       <c r="M30" s="35"/>
     </row>
     <row r="31" spans="1:13" ht="24.95" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="52"/>
+      <c r="B31" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="40">
+        <v>42862</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>119</v>
+      </c>
       <c r="K31" s="34"/>
-      <c r="L31" s="36"/>
+      <c r="L31" s="36" t="s">
+        <v>121</v>
+      </c>
       <c r="M31" s="35"/>
     </row>
     <row r="32" spans="1:13" ht="24.95" customHeight="1">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="52"/>
+      <c r="B32" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="40">
+        <v>42862</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>119</v>
+      </c>
       <c r="K32" s="34"/>
-      <c r="L32" s="36"/>
+      <c r="L32" s="36" t="s">
+        <v>120</v>
+      </c>
       <c r="M32" s="35"/>
     </row>
     <row r="33" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="52"/>
+      <c r="B33" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="40">
+        <v>42862</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>119</v>
+      </c>
       <c r="K33" s="34"/>
-      <c r="L33" s="36"/>
+      <c r="L33" s="36" t="s">
+        <v>120</v>
+      </c>
       <c r="M33" s="35"/>
     </row>
     <row r="34" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="52"/>
+      <c r="B34" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="40">
+        <v>42862</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>119</v>
+      </c>
       <c r="K34" s="34"/>
-      <c r="L34" s="36"/>
+      <c r="L34" s="36" t="s">
+        <v>120</v>
+      </c>
       <c r="M34" s="35"/>
     </row>
     <row r="35" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="52"/>
+      <c r="B35" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="40">
+        <v>42862</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>119</v>
+      </c>
       <c r="K35" s="34"/>
-      <c r="L35" s="36"/>
+      <c r="L35" s="36" t="s">
+        <v>120</v>
+      </c>
       <c r="M35" s="35"/>
     </row>
     <row r="36" spans="2:13" ht="24.95" customHeight="1">
